--- a/api/薪酬报告后台任务汇总11-15.xlsx
+++ b/api/薪酬报告后台任务汇总11-15.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
@@ -222,38 +217,31 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -265,13 +253,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,10 +281,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -305,23 +296,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -368,7 +348,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -403,7 +383,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -580,21 +560,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
@@ -603,16 +583,16 @@
     <col min="5" max="5" width="23.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" ht="49.5" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="32.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -629,7 +609,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="24.95" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
@@ -637,14 +617,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -654,10 +634,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+    <row r="5" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
@@ -665,10 +645,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+    <row r="6" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
@@ -676,10 +656,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
+    <row r="7" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -689,10 +669,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+    <row r="8" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
@@ -700,10 +680,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
+    <row r="9" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -713,10 +693,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+    <row r="10" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
@@ -724,10 +704,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+    <row r="11" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="1" t="s">
         <v>17</v>
       </c>
@@ -735,10 +715,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+    <row r="12" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="1" t="s">
         <v>19</v>
       </c>
@@ -746,9 +726,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+    <row r="13" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="1" t="s">
         <v>26</v>
       </c>
@@ -759,14 +739,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="24.95" customHeight="1">
       <c r="A14" t="s">
         <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -775,44 +755,59 @@
       <c r="E14" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="5"/>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="24.95" customHeight="1">
+      <c r="C15" s="6"/>
       <c r="D15" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="5"/>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="24.95" customHeight="1">
+      <c r="C16" s="6"/>
       <c r="D16" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="5"/>
+      <c r="F16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="24.95" customHeight="1">
+      <c r="C17" s="6"/>
       <c r="D17" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="5"/>
+      <c r="F17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="24.95" customHeight="1">
+      <c r="C18" s="6"/>
       <c r="D18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="24.95" customHeight="1">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -822,15 +817,16 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="A4:A13"/>
     <mergeCell ref="C14:C18"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C12"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="A4:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>